--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Spp1-Itga9.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Spp1-Itga9.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>12.486902</v>
+        <v>2.276052666666667</v>
       </c>
       <c r="H2">
-        <v>37.460706</v>
+        <v>6.828158</v>
       </c>
       <c r="I2">
-        <v>0.01504353194025314</v>
+        <v>0.005247614157263819</v>
       </c>
       <c r="J2">
-        <v>0.01504353194025314</v>
+        <v>0.005247614157263819</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.237200333333333</v>
+        <v>3.135398666666667</v>
       </c>
       <c r="N2">
-        <v>6.711601</v>
+        <v>9.406196000000001</v>
       </c>
       <c r="O2">
-        <v>0.1121050933480713</v>
+        <v>0.1723049126704688</v>
       </c>
       <c r="P2">
-        <v>0.1121050933480713</v>
+        <v>0.1723049126704688</v>
       </c>
       <c r="Q2">
-        <v>27.93570131670067</v>
+        <v>7.136332496329779</v>
       </c>
       <c r="R2">
-        <v>251.421311850306</v>
+        <v>64.22699246696801</v>
       </c>
       <c r="S2">
-        <v>0.001686456552446771</v>
+        <v>0.0009041896990956581</v>
       </c>
       <c r="T2">
-        <v>0.001686456552446771</v>
+        <v>0.0009041896990956582</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>12.486902</v>
+        <v>2.276052666666667</v>
       </c>
       <c r="H3">
-        <v>37.460706</v>
+        <v>6.828158</v>
       </c>
       <c r="I3">
-        <v>0.01504353194025314</v>
+        <v>0.005247614157263819</v>
       </c>
       <c r="J3">
-        <v>0.01504353194025314</v>
+        <v>0.005247614157263819</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>9.461046</v>
       </c>
       <c r="O3">
-        <v>0.158029573718759</v>
+        <v>0.1733096678828815</v>
       </c>
       <c r="P3">
-        <v>0.158029573718759</v>
+        <v>0.1733096678828815</v>
       </c>
       <c r="Q3">
-        <v>39.379718073164</v>
+        <v>7.177946325918667</v>
       </c>
       <c r="R3">
-        <v>354.417462658476</v>
+        <v>64.601516933268</v>
       </c>
       <c r="S3">
-        <v>0.002377322939742739</v>
+        <v>0.0009094622667728993</v>
       </c>
       <c r="T3">
-        <v>0.00237732293974274</v>
+        <v>0.0009094622667728994</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>12.486902</v>
+        <v>2.276052666666667</v>
       </c>
       <c r="H4">
-        <v>37.460706</v>
+        <v>6.828158</v>
       </c>
       <c r="I4">
-        <v>0.01504353194025314</v>
+        <v>0.005247614157263819</v>
       </c>
       <c r="J4">
-        <v>0.01504353194025314</v>
+        <v>0.005247614157263819</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.123499666666667</v>
+        <v>0.4900660000000001</v>
       </c>
       <c r="N4">
-        <v>3.370499</v>
+        <v>1.470198</v>
       </c>
       <c r="O4">
-        <v>0.05629805839539346</v>
+        <v>0.02693143306797965</v>
       </c>
       <c r="P4">
-        <v>0.05629805839539345</v>
+        <v>0.02693143306797965</v>
       </c>
       <c r="Q4">
-        <v>14.02903023469934</v>
+        <v>1.115416026142667</v>
       </c>
       <c r="R4">
-        <v>126.261272112294</v>
+        <v>10.038744235284</v>
       </c>
       <c r="S4">
-        <v>0.0008469216396453378</v>
+        <v>0.000141325769442933</v>
       </c>
       <c r="T4">
-        <v>0.0008469216396453378</v>
+        <v>0.000141325769442933</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>12.486902</v>
+        <v>2.276052666666667</v>
       </c>
       <c r="H5">
-        <v>37.460706</v>
+        <v>6.828158</v>
       </c>
       <c r="I5">
-        <v>0.01504353194025314</v>
+        <v>0.005247614157263819</v>
       </c>
       <c r="J5">
-        <v>0.01504353194025314</v>
+        <v>0.005247614157263819</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>13.44189533333333</v>
+        <v>11.417657</v>
       </c>
       <c r="N5">
-        <v>40.325686</v>
+        <v>34.252971</v>
       </c>
       <c r="O5">
-        <v>0.6735672745377762</v>
+        <v>0.62745398637867</v>
       </c>
       <c r="P5">
-        <v>0.6735672745377762</v>
+        <v>0.6274539863786701</v>
       </c>
       <c r="Q5">
-        <v>167.8476297215907</v>
+        <v>25.98718866193533</v>
       </c>
       <c r="R5">
-        <v>1510.628667494316</v>
+        <v>233.884697957418</v>
       </c>
       <c r="S5">
-        <v>0.01013283080841829</v>
+        <v>0.003292636421952328</v>
       </c>
       <c r="T5">
-        <v>0.01013283080841829</v>
+        <v>0.003292636421952329</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>138.256042</v>
       </c>
       <c r="I6">
-        <v>0.05552108878460485</v>
+        <v>0.1062533062835484</v>
       </c>
       <c r="J6">
-        <v>0.05552108878460485</v>
+        <v>0.1062533062835484</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.237200333333333</v>
+        <v>3.135398666666667</v>
       </c>
       <c r="N6">
-        <v>6.711601</v>
+        <v>9.406196000000001</v>
       </c>
       <c r="O6">
-        <v>0.1121050933480713</v>
+        <v>0.1723049126704688</v>
       </c>
       <c r="P6">
-        <v>0.1121050933480713</v>
+        <v>0.1723049126704688</v>
       </c>
       <c r="Q6">
-        <v>103.1021544159158</v>
+        <v>144.4959365818036</v>
       </c>
       <c r="R6">
-        <v>927.919389743242</v>
+        <v>1300.463429236232</v>
       </c>
       <c r="S6">
-        <v>0.006224196840984683</v>
+        <v>0.01830796666013538</v>
       </c>
       <c r="T6">
-        <v>0.006224196840984683</v>
+        <v>0.01830796666013538</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>138.256042</v>
       </c>
       <c r="I7">
-        <v>0.05552108878460485</v>
+        <v>0.1062533062835484</v>
       </c>
       <c r="J7">
-        <v>0.05552108878460485</v>
+        <v>0.1062533062835484</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>9.461046</v>
       </c>
       <c r="O7">
-        <v>0.158029573718759</v>
+        <v>0.1733096678828815</v>
       </c>
       <c r="P7">
-        <v>0.158029573718759</v>
+        <v>0.1733096678828815</v>
       </c>
       <c r="Q7">
         <v>145.3385303488813</v>
@@ -883,10 +883,10 @@
         <v>1308.046773139932</v>
       </c>
       <c r="S7">
-        <v>0.008773973993032477</v>
+        <v>0.01841472522345985</v>
       </c>
       <c r="T7">
-        <v>0.008773973993032477</v>
+        <v>0.01841472522345985</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>138.256042</v>
       </c>
       <c r="I8">
-        <v>0.05552108878460485</v>
+        <v>0.1062533062835484</v>
       </c>
       <c r="J8">
-        <v>0.05552108878460485</v>
+        <v>0.1062533062835484</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.123499666666667</v>
+        <v>0.4900660000000001</v>
       </c>
       <c r="N8">
-        <v>3.370499</v>
+        <v>1.470198</v>
       </c>
       <c r="O8">
-        <v>0.05629805839539346</v>
+        <v>0.02693143306797965</v>
       </c>
       <c r="P8">
-        <v>0.05629805839539345</v>
+        <v>0.02693143306797965</v>
       </c>
       <c r="Q8">
-        <v>51.77687236721756</v>
+        <v>22.58486182625734</v>
       </c>
       <c r="R8">
-        <v>465.9918513049581</v>
+        <v>203.263756436316</v>
       </c>
       <c r="S8">
-        <v>0.003125729498571509</v>
+        <v>0.002861553806426925</v>
       </c>
       <c r="T8">
-        <v>0.003125729498571508</v>
+        <v>0.002861553806426925</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>138.256042</v>
       </c>
       <c r="I9">
-        <v>0.05552108878460485</v>
+        <v>0.1062533062835484</v>
       </c>
       <c r="J9">
-        <v>0.05552108878460485</v>
+        <v>0.1062533062835484</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>13.44189533333333</v>
+        <v>11.417657</v>
       </c>
       <c r="N9">
-        <v>40.325686</v>
+        <v>34.252971</v>
       </c>
       <c r="O9">
-        <v>0.6735672745377762</v>
+        <v>0.62745398637867</v>
       </c>
       <c r="P9">
-        <v>0.6735672745377762</v>
+        <v>0.6274539863786701</v>
       </c>
       <c r="Q9">
-        <v>619.4744152549791</v>
+        <v>526.1866885778647</v>
       </c>
       <c r="R9">
-        <v>5575.269737294812</v>
+        <v>4735.680197200782</v>
       </c>
       <c r="S9">
-        <v>0.03739718845201618</v>
+        <v>0.06666906059352622</v>
       </c>
       <c r="T9">
-        <v>0.03739718845201618</v>
+        <v>0.06666906059352624</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>105.0040076666667</v>
+        <v>41.187613</v>
       </c>
       <c r="H10">
-        <v>315.012023</v>
+        <v>123.562839</v>
       </c>
       <c r="I10">
-        <v>0.1265030464071941</v>
+        <v>0.09496120377532416</v>
       </c>
       <c r="J10">
-        <v>0.1265030464071941</v>
+        <v>0.09496120377532417</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.237200333333333</v>
+        <v>3.135398666666667</v>
       </c>
       <c r="N10">
-        <v>6.711601</v>
+        <v>9.406196000000001</v>
       </c>
       <c r="O10">
-        <v>0.1121050933480713</v>
+        <v>0.1723049126704688</v>
       </c>
       <c r="P10">
-        <v>0.1121050933480713</v>
+        <v>0.1723049126704688</v>
       </c>
       <c r="Q10">
-        <v>234.9150009532026</v>
+        <v>129.1395868833827</v>
       </c>
       <c r="R10">
-        <v>2114.235008578823</v>
+        <v>1162.256281950444</v>
       </c>
       <c r="S10">
-        <v>0.0141816358262939</v>
+        <v>0.01636228192358983</v>
       </c>
       <c r="T10">
-        <v>0.0141816358262939</v>
+        <v>0.01636228192358983</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>105.0040076666667</v>
+        <v>41.187613</v>
       </c>
       <c r="H11">
-        <v>315.012023</v>
+        <v>123.562839</v>
       </c>
       <c r="I11">
-        <v>0.1265030464071941</v>
+        <v>0.09496120377532416</v>
       </c>
       <c r="J11">
-        <v>0.1265030464071941</v>
+        <v>0.09496120377532417</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>9.461046</v>
       </c>
       <c r="O11">
-        <v>0.158029573718759</v>
+        <v>0.1733096678828815</v>
       </c>
       <c r="P11">
-        <v>0.158029573718759</v>
+        <v>0.1733096678828815</v>
       </c>
       <c r="Q11">
-        <v>331.1492489062286</v>
+        <v>129.892633741066</v>
       </c>
       <c r="R11">
-        <v>2980.343240156058</v>
+        <v>1169.033703669594</v>
       </c>
       <c r="S11">
-        <v>0.01999122249785328</v>
+        <v>0.01645769468806006</v>
       </c>
       <c r="T11">
-        <v>0.01999122249785328</v>
+        <v>0.01645769468806006</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>105.0040076666667</v>
+        <v>41.187613</v>
       </c>
       <c r="H12">
-        <v>315.012023</v>
+        <v>123.562839</v>
       </c>
       <c r="I12">
-        <v>0.1265030464071941</v>
+        <v>0.09496120377532416</v>
       </c>
       <c r="J12">
-        <v>0.1265030464071941</v>
+        <v>0.09496120377532417</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.123499666666667</v>
+        <v>0.4900660000000001</v>
       </c>
       <c r="N12">
-        <v>3.370499</v>
+        <v>1.470198</v>
       </c>
       <c r="O12">
-        <v>0.05629805839539346</v>
+        <v>0.02693143306797965</v>
       </c>
       <c r="P12">
-        <v>0.05629805839539345</v>
+        <v>0.02693143306797965</v>
       </c>
       <c r="Q12">
-        <v>117.9719676121641</v>
+        <v>20.184648752458</v>
       </c>
       <c r="R12">
-        <v>1061.747708509477</v>
+        <v>181.661838772122</v>
       </c>
       <c r="S12">
-        <v>0.007121875893827385</v>
+        <v>0.002557441303529919</v>
       </c>
       <c r="T12">
-        <v>0.007121875893827384</v>
+        <v>0.00255744130352992</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>105.0040076666667</v>
+        <v>41.187613</v>
       </c>
       <c r="H13">
-        <v>315.012023</v>
+        <v>123.562839</v>
       </c>
       <c r="I13">
-        <v>0.1265030464071941</v>
+        <v>0.09496120377532416</v>
       </c>
       <c r="J13">
-        <v>0.1265030464071941</v>
+        <v>0.09496120377532417</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>13.44189533333333</v>
+        <v>11.417657</v>
       </c>
       <c r="N13">
-        <v>40.325686</v>
+        <v>34.252971</v>
       </c>
       <c r="O13">
-        <v>0.6735672745377762</v>
+        <v>0.62745398637867</v>
       </c>
       <c r="P13">
-        <v>0.6735672745377762</v>
+        <v>0.6274539863786701</v>
       </c>
       <c r="Q13">
-        <v>1411.452880635864</v>
+        <v>470.266037882741</v>
       </c>
       <c r="R13">
-        <v>12703.07592572278</v>
+        <v>4232.394340944669</v>
       </c>
       <c r="S13">
-        <v>0.08520831218921958</v>
+        <v>0.05958378586014435</v>
       </c>
       <c r="T13">
-        <v>0.08520831218921958</v>
+        <v>0.05958378586014437</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>666.4749603333333</v>
+        <v>344.1819356666667</v>
       </c>
       <c r="H14">
-        <v>1999.424881</v>
+        <v>1032.545807</v>
       </c>
       <c r="I14">
-        <v>0.8029323328679479</v>
+        <v>0.7935378757838636</v>
       </c>
       <c r="J14">
-        <v>0.8029323328679479</v>
+        <v>0.7935378757838637</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.237200333333333</v>
+        <v>3.135398666666667</v>
       </c>
       <c r="N14">
-        <v>6.711601</v>
+        <v>9.406196000000001</v>
       </c>
       <c r="O14">
-        <v>0.1121050933480713</v>
+        <v>0.1723049126704688</v>
       </c>
       <c r="P14">
-        <v>0.1121050933480713</v>
+        <v>0.1723049126704688</v>
       </c>
       <c r="Q14">
-        <v>1491.038003416053</v>
+        <v>1079.147582180019</v>
       </c>
       <c r="R14">
-        <v>13419.34203074448</v>
+        <v>9712.328239620174</v>
       </c>
       <c r="S14">
-        <v>0.09001280412834599</v>
+        <v>0.136730474387648</v>
       </c>
       <c r="T14">
-        <v>0.09001280412834599</v>
+        <v>0.136730474387648</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>666.4749603333333</v>
+        <v>344.1819356666667</v>
       </c>
       <c r="H15">
-        <v>1999.424881</v>
+        <v>1032.545807</v>
       </c>
       <c r="I15">
-        <v>0.8029323328679479</v>
+        <v>0.7935378757838636</v>
       </c>
       <c r="J15">
-        <v>0.8029323328679479</v>
+        <v>0.7935378757838637</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>9.461046</v>
       </c>
       <c r="O15">
-        <v>0.158029573718759</v>
+        <v>0.1733096678828815</v>
       </c>
       <c r="P15">
-        <v>0.158029573718759</v>
+        <v>0.1733096678828815</v>
       </c>
       <c r="Q15">
-        <v>2101.850085853947</v>
+        <v>1085.440375237125</v>
       </c>
       <c r="R15">
-        <v>18916.65077268552</v>
+        <v>9768.963377134121</v>
       </c>
       <c r="S15">
-        <v>0.1268870542881305</v>
+        <v>0.1375277857045887</v>
       </c>
       <c r="T15">
-        <v>0.1268870542881305</v>
+        <v>0.1375277857045887</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>666.4749603333333</v>
+        <v>344.1819356666667</v>
       </c>
       <c r="H16">
-        <v>1999.424881</v>
+        <v>1032.545807</v>
       </c>
       <c r="I16">
-        <v>0.8029323328679479</v>
+        <v>0.7935378757838636</v>
       </c>
       <c r="J16">
-        <v>0.8029323328679479</v>
+        <v>0.7935378757838637</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.123499666666667</v>
+        <v>0.4900660000000001</v>
       </c>
       <c r="N16">
-        <v>3.370499</v>
+        <v>1.470198</v>
       </c>
       <c r="O16">
-        <v>0.05629805839539346</v>
+        <v>0.02693143306797965</v>
       </c>
       <c r="P16">
-        <v>0.05629805839539345</v>
+        <v>0.02693143306797965</v>
       </c>
       <c r="Q16">
-        <v>748.78439577618</v>
+        <v>168.6718644844207</v>
       </c>
       <c r="R16">
-        <v>6739.059561985619</v>
+        <v>1518.046780359786</v>
       </c>
       <c r="S16">
-        <v>0.04520353136334922</v>
+        <v>0.02137111218857987</v>
       </c>
       <c r="T16">
-        <v>0.04520353136334922</v>
+        <v>0.02137111218857988</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>666.4749603333333</v>
+        <v>344.1819356666667</v>
       </c>
       <c r="H17">
-        <v>1999.424881</v>
+        <v>1032.545807</v>
       </c>
       <c r="I17">
-        <v>0.8029323328679479</v>
+        <v>0.7935378757838636</v>
       </c>
       <c r="J17">
-        <v>0.8029323328679479</v>
+        <v>0.7935378757838637</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>13.44189533333333</v>
+        <v>11.417657</v>
       </c>
       <c r="N17">
-        <v>40.325686</v>
+        <v>34.252971</v>
       </c>
       <c r="O17">
-        <v>0.6735672745377762</v>
+        <v>0.62745398637867</v>
       </c>
       <c r="P17">
-        <v>0.6735672745377762</v>
+        <v>0.6274539863786701</v>
       </c>
       <c r="Q17">
-        <v>8958.686659088151</v>
+        <v>3929.751287038066</v>
       </c>
       <c r="R17">
-        <v>80628.17993179336</v>
+        <v>35367.7615833426</v>
       </c>
       <c r="S17">
-        <v>0.5408289430881221</v>
+        <v>0.4979085035030471</v>
       </c>
       <c r="T17">
-        <v>0.5408289430881221</v>
+        <v>0.4979085035030472</v>
       </c>
     </row>
   </sheetData>
